--- a/results/adult_bn_res_presentation.xlsx
+++ b/results/adult_bn_res_presentation.xlsx
@@ -394,7 +394,7 @@
         <v>0.8316757265946029</v>
       </c>
       <c r="D2">
-        <v>0.8344654524507253</v>
+        <v>0.8344010480800496</v>
       </c>
     </row>
     <row r="3">
@@ -412,7 +412,7 @@
         <v>0.837192599934459</v>
       </c>
       <c r="D3">
-        <v>0.8365825542946562</v>
+        <v>0.8365427221285338</v>
       </c>
     </row>
     <row r="4">
@@ -430,7 +430,7 @@
         <v>0.8431967749229715</v>
       </c>
       <c r="D4">
-        <v>0.8422612622821989</v>
+        <v>0.8420561451593912</v>
       </c>
     </row>
     <row r="5">
@@ -448,7 +448,7 @@
         <v>0.8152872298386932</v>
       </c>
       <c r="D5">
-        <v>0.8144355435599111</v>
+        <v>0.8185100935750645</v>
       </c>
     </row>
     <row r="6">
@@ -466,7 +466,7 @@
         <v>0.8262160926163478</v>
       </c>
       <c r="D6">
-        <v>0.842956519191001</v>
+        <v>0.8429782181197307</v>
       </c>
     </row>
     <row r="7">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.842956519191001</v>
+        <v>0.8429782181197307</v>
       </c>
       <c r="D7">
-        <v>0.842956519191001</v>
+        <v>0.8429782181197307</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>0.8916507710035578</v>
       </c>
       <c r="D8">
-        <v>0.8944788759305157</v>
+        <v>0.8945574141459582</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +520,7 @@
         <v>0.89513965422355</v>
       </c>
       <c r="D9">
-        <v>0.8959100579434937</v>
+        <v>0.8959182939535527</v>
       </c>
     </row>
     <row r="10">
@@ -538,7 +538,7 @@
         <v>0.8981551191063539</v>
       </c>
       <c r="D10">
-        <v>0.8988330475951687</v>
+        <v>0.8988359231081364</v>
       </c>
     </row>
     <row r="11">
@@ -556,7 +556,7 @@
         <v>0.8833292751981029</v>
       </c>
       <c r="D11">
-        <v>0.8845936046885629</v>
+        <v>0.8868691593554873</v>
       </c>
     </row>
     <row r="12">
@@ -574,7 +574,7 @@
         <v>0.8866629223954394</v>
       </c>
       <c r="D12">
-        <v>0.8622395302508793</v>
+        <v>0.8477829436644713</v>
       </c>
     </row>
     <row r="13">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.8622395302508793</v>
+        <v>0.8477829436644713</v>
       </c>
       <c r="D13">
-        <v>0.8622395302508793</v>
+        <v>0.8477829436644713</v>
       </c>
     </row>
     <row r="14">
@@ -610,7 +610,7 @@
         <v>0.9221991188491545</v>
       </c>
       <c r="D14">
-        <v>0.9293074622739388</v>
+        <v>0.9299518643345859</v>
       </c>
     </row>
     <row r="15">
@@ -628,7 +628,7 @@
         <v>0.9252051859571273</v>
       </c>
       <c r="D15">
-        <v>0.9315318607526966</v>
+        <v>0.9313384592534281</v>
       </c>
     </row>
     <row r="16">
@@ -646,7 +646,7 @@
         <v>0.9205836876499056</v>
       </c>
       <c r="D16">
-        <v>0.9281726745010108</v>
+        <v>0.9289157554930461</v>
       </c>
     </row>
     <row r="17">
@@ -664,7 +664,7 @@
         <v>0.9305817096158279</v>
       </c>
       <c r="D17">
-        <v>0.9407951639185212</v>
+        <v>0.9403974291940432</v>
       </c>
     </row>
     <row r="18">
@@ -682,7 +682,7 @@
         <v>0.9053639256410779</v>
       </c>
       <c r="D18">
-        <v>0.8750078262917084</v>
+        <v>0.8561313743036549</v>
       </c>
     </row>
     <row r="19">
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.8750078262917084</v>
+        <v>0.8561313743036549</v>
       </c>
       <c r="D19">
-        <v>0.8750078262917084</v>
+        <v>0.8561313743036549</v>
       </c>
     </row>
     <row r="20">
@@ -718,7 +718,7 @@
         <v>0.5585375395541898</v>
       </c>
       <c r="D20">
-        <v>0.5421744240790708</v>
+        <v>0.5392600260427094</v>
       </c>
     </row>
     <row r="21">
@@ -736,7 +736,7 @@
         <v>0.5716325645308811</v>
       </c>
       <c r="D21">
-        <v>0.5439880717084361</v>
+        <v>0.5437746960196035</v>
       </c>
     </row>
     <row r="22">
@@ -754,7 +754,7 @@
         <v>0.6096966957669587</v>
       </c>
       <c r="D22">
-        <v>0.5774867880390923</v>
+        <v>0.5737366271016626</v>
       </c>
     </row>
     <row r="23">
@@ -772,7 +772,7 @@
         <v>0.4674074451918871</v>
       </c>
       <c r="D23">
-        <v>0.4251214352734027</v>
+        <v>0.4422863642251448</v>
       </c>
     </row>
     <row r="24">
@@ -790,7 +790,7 @@
         <v>0.5876945308574444</v>
       </c>
       <c r="D24">
-        <v>0.6383386359996804</v>
+        <v>0.6564429205615224</v>
       </c>
     </row>
     <row r="25">
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.6383386359996804</v>
+        <v>0.6564429205615224</v>
       </c>
       <c r="D25">
-        <v>0.6383386359996804</v>
+        <v>0.6564429205615224</v>
       </c>
     </row>
   </sheetData>
